--- a/data/trans_camb/P41_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P41_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-1,82</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-7,76</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-2,29</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-3,25</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,35</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,73</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-0,92</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>-0,31</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,05</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>10,6</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-2,34</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,42</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-2,0</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>4,69</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>7,74</t>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>-5,48</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 13,23</t>
+          <t>-1,19; 8,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 8,14</t>
+          <t>-2,84; 5,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 13,0</t>
+          <t>-1,35; 8,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 18,17</t>
+          <t>-3,74; 10,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 4,79</t>
+          <t>-12,78; 2,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 6,26</t>
+          <t>-11,59; -4,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 5,55</t>
+          <t>-3,14; 2,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 12,51</t>
+          <t>-1,35; 4,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 7,08</t>
+          <t>-2,11; 4,28</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 4,93</t>
+          <t>-5,07; 0,86</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 6,96</t>
+          <t>-2,03; 3,59</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,13; 12,73</t>
+          <t>-6,35; -0,79</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-1,35; 4,1</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-0,8; 4,11</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 4,95</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-3,49; 4,8</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-5,56; 2,21</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-7,82; -3,06</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>33,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,46%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>28,28%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>49,32%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-8,15%</t>
+          <t>-19,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,45%</t>
+          <t>-50,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-6,95%</t>
+          <t>-4,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-0,91%</t>
+          <t>-23,77%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>31,06%</t>
+          <t>-27,79%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>12,81%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>14,61%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>18,74%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-9,99%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>-3,79%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>-40,72%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,37; 72,01</t>
+          <t>-12,94; 109,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,98; 44,09</t>
+          <t>-28,19; 74,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,08; 70,23</t>
+          <t>-15,63; 112,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,77; 102,91</t>
+          <t>-41,2; 168,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,67; 19,48</t>
+          <t>-66,44; 47,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,34; 24,33</t>
+          <t>-65,52; -31,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,41; 22,66</t>
+          <t>-29,44; 36,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 50,76</t>
+          <t>-12,24; 58,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-18,63; 31,62</t>
+          <t>-19,1; 52,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 22,13</t>
+          <t>-46,82; 8,95</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-18,63; 31,02</t>
+          <t>-21,94; 59,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,18; 56,32</t>
+          <t>-48,49; -7,39</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-13,59; 48,02</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-8,14; 52,33</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-4,68; 58,43</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-35,25; 56,46</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-46,33; 33,34</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-52,89; -25,9</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>-5,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>-5,95</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,45</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,81</t>
+          <t>-9,4</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,25</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-2,59</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>-7,59</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 13,96</t>
+          <t>-2,94; 8,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 13,99</t>
+          <t>-0,71; 9,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 16,93</t>
+          <t>0,09; 11,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 14,46</t>
+          <t>-10,86; 1,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 12,72</t>
+          <t>-6,06; 6,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,26; 4,88</t>
+          <t>-12,62; 0,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 8,31</t>
+          <t>-2,43; 5,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,09; 26,21</t>
+          <t>-3,58; 3,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 10,62</t>
+          <t>-1,44; 5,87</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 7,78</t>
+          <t>-3,17; 4,5</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 9,97</t>
+          <t>-5,85; 4,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 15,38</t>
+          <t>-16,34; -3,43</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,36; 5,81</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-1,07; 5,44</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,7; 7,26</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-5,75; 1,35</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-4,13; 3,63</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-12,23; -3,15</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>26,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>34,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>-35,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-11,97%</t>
+          <t>-35,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-4,1%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34,87%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>-9,72%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>-47,31%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>13,57%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>16,75%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>28,32%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-19,25%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>-2,54%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>-41,78%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,74; 45,22</t>
+          <t>-17,28; 62,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 43,91</t>
+          <t>-4,61; 70,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 54,14</t>
+          <t>0,29; 83,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,0; 44,68</t>
+          <t>-60,49; 13,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,42; 39,2</t>
+          <t>-44,51; 91,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,97; 15,06</t>
+          <t>-61,12; 3,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,05; 26,45</t>
+          <t>-19,1; 52,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 76,67</t>
+          <t>-27,52; 39,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 31,14</t>
+          <t>-11,14; 62,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 22,87</t>
+          <t>-25,36; 49,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 29,78</t>
+          <t>-44,85; 40,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 44,99</t>
+          <t>-68,63; -18,31</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-9,54; 47,41</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-7,23; 44,87</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>4,29; 60,78</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-39,39; 12,21</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-33,85; 40,7</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-58,79; -20,19</t>
         </is>
       </c>
     </row>
@@ -1208,60 +1496,90 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,87</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-2,61</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-13,29</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,02</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>-2,84</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-1,26</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-3,67</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-1,17</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-1,53</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-1,95</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,48; 23,81</t>
+          <t>-8,71; 8,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,21; 22,46</t>
+          <t>-6,41; 9,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,74; 21,11</t>
+          <t>-6,8; 9,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-10,24; 5,06</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-35,32; 9,34</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,34; 12,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-23,07; 16,13</t>
+          <t>-11,25; 3,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>-9,27; 4,48</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-7,45; 7,19</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-9,02; 6,01</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-19,76; 11,68</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-16,77; 12,64</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-14,26; 13,47</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-7,14; 3,29</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-5,49; 5,23</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-4,09; 6,3</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-7,57; 2,99</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>29,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>21,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-29,0%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-29,61%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-17,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-5,9%</t>
+          <t>-31,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>-23,41%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2,31%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-10,42%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-10,12%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-3,23%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-0,41%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-14,5%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-0,29%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>10,47%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-18,52%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1412,60 +1790,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-50,72; 129,57</t>
+          <t>-64,73; 159,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-42,33; 128,53</t>
+          <t>-46,36; 189,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,44; 123,29</t>
+          <t>-47,97; 183,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-80,92; 118,17</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-67,34; 23,05</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,12; 35,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-45,21; 46,44</t>
+          <t>-68,49; 48,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-61,43; 52,62</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-47,27; 82,3</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-56,78; 71,83</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-44,2; 42,61</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-38,84; 44,35</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-32,33; 48,2</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-53,92; 42,97</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-41,66; 70,48</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-31,75; 81,46</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-57,12; 41,36</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-7,32</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>-4,56</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,51</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,44</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-1,72</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>-0,75</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>-5,94</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 9,95</t>
+          <t>-0,6; 5,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 8,57</t>
+          <t>-0,36; 5,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 11,02</t>
+          <t>0,36; 6,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 10,81</t>
+          <t>-5,55; 3,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 4,45</t>
+          <t>-6,3; 2,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 2,77</t>
+          <t>-10,65; -4,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 3,47</t>
+          <t>-2,35; 2,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 9,91</t>
+          <t>-1,56; 2,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 5,78</t>
+          <t>-0,82; 3,55</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 3,98</t>
+          <t>-3,27; 1,13</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 5,52</t>
+          <t>-2,68; 1,67</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 8,9</t>
+          <t>-7,07; -2,15</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 3,21</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-0,46; 3,61</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 4,39</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 1,34</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 1,3</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-7,87; -3,74</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>21,25%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>14,79%</t>
+          <t>30,69%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>-19,8%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-5,89%</t>
+          <t>-10,97%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-8,51%</t>
+          <t>-47,02%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-5,75%</t>
+          <t>-1,65%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>-11,09%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>-5,12%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>-33,89%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>9,93%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>13,65%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>22,14%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-15,54%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>-8,04%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>-40,94%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 38,35</t>
+          <t>-4,96; 56,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 34,23</t>
+          <t>-2,92; 52,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 43,51</t>
+          <t>2,79; 64,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 42,49</t>
+          <t>-45,84; 29,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,05; 14,48</t>
+          <t>-46,89; 34,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 9,28</t>
+          <t>-59,89; -29,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-19,51; 11,9</t>
+          <t>-20,41; 24,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 32,93</t>
+          <t>-13,62; 29,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 19,76</t>
+          <t>-7,58; 37,8</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 13,61</t>
+          <t>-28,41; 12,11</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 18,56</t>
+          <t>-25,56; 20,35</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 31,18</t>
+          <t>-46,83; -17,91</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-7,53; 30,6</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-4,17; 34,92</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>5,33; 42,04</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-32,52; 13,41</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-31,91; 16,42</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-50,51; -27,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
